--- a/E-Learning/App_Data/DanhSachTieuBan_Template.xlsx
+++ b/E-Learning/App_Data/DanhSachTieuBan_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguyenvotuannhan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NHANNVT\source\ELearningWeb\E-Learning\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BE7101-3855-48FC-9F6D-98A9DC7F4E33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607722B6-222C-4B43-918F-BEF0B1484ABC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Mã vị trí KNL</t>
-  </si>
-  <si>
     <t>Thành viên</t>
   </si>
   <si>
@@ -44,13 +41,22 @@
   </si>
   <si>
     <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Mã nhân viên</t>
+  </si>
+  <si>
+    <t>Tên T/PBP</t>
+  </si>
+  <si>
+    <t>Mã NV người duyệt (T/PBP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -59,6 +65,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,9 +95,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,48 +415,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="24.140625" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
